--- a/licitaciones_suspendida_2019.xlsx
+++ b/licitaciones_suspendida_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,6 +3314,32 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1058091-1-LP22</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO POR FÁRMACOS ANTIVIRALES VIA ORAL Y MEDICAMENTOS INCORPORADOS AL ARSENAL 2022 PARA FARMACIA POR COMPRAS ESPECIALES POR QUIEBRE DE STOCK</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>16</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44659.70833333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1058091-1-LP22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_suspendida_2019.xlsx
+++ b/licitaciones_suspendida_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3340,6 +3340,32 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3653-34-LE22</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SUMINISTRO TRANSPORTE ESTUDIANTES SEGUNDO SEMESTRE</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>16</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44707.625</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3653-34-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_suspendida_2019.xlsx
+++ b/licitaciones_suspendida_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3366,6 +3366,32 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5240-62-LP22</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ADQ. DE EQUIPAMIENTO TECNOLÓGICO F.O.R.A.</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>16</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44693.625</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5240-62-LP22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_suspendida_2019.xlsx
+++ b/licitaciones_suspendida_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3392,6 +3392,32 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3199-11-LR22</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CONSERVACIÓN ALUMBRADO PÚBLICO COMUNA DE LONCOCHE</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44721.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3199-11-LR22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
